--- a/database/industries/dode/shekarbon/product/quarterly.xlsx
+++ b/database/industries/dode/shekarbon/product/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E62D26D-E53D-462F-9438-DCF83E5759F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF214E15-5899-48FD-AAD2-0951B5F7DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شکربن-کربن‌ ایران‌</t>
@@ -37,24 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>سایر</t>
   </si>
   <si>
@@ -107,6 +92,9 @@
   </si>
   <si>
     <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -568,16 +556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N62"/>
+  <dimension ref="B1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -586,13 +574,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,13 +586,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -620,13 +598,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -635,13 +608,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -652,13 +620,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -669,13 +632,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -684,13 +642,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -711,23 +664,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -736,165 +674,100 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>8365</v>
+        <v>10670</v>
       </c>
       <c r="F11" s="11">
-        <v>10103</v>
+        <v>10229</v>
       </c>
       <c r="G11" s="11">
-        <v>10728</v>
+        <v>11121</v>
       </c>
       <c r="H11" s="11">
-        <v>12936</v>
+        <v>10892</v>
       </c>
       <c r="I11" s="11">
-        <v>11824</v>
-      </c>
-      <c r="J11" s="11">
-        <v>11293</v>
-      </c>
-      <c r="K11" s="11">
-        <v>10670</v>
-      </c>
-      <c r="L11" s="11">
-        <v>10229</v>
-      </c>
-      <c r="M11" s="11">
-        <v>11121</v>
-      </c>
-      <c r="N11" s="11">
-        <v>10892</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11051</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>17</v>
+      <c r="E12" s="9">
+        <v>0</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>8365</v>
+        <v>10670</v>
       </c>
       <c r="F13" s="13">
-        <v>10103</v>
+        <v>10229</v>
       </c>
       <c r="G13" s="13">
-        <v>10728</v>
+        <v>11121</v>
       </c>
       <c r="H13" s="13">
-        <v>12936</v>
+        <v>10892</v>
       </c>
       <c r="I13" s="13">
-        <v>11824</v>
-      </c>
-      <c r="J13" s="13">
-        <v>11293</v>
-      </c>
-      <c r="K13" s="13">
-        <v>10670</v>
-      </c>
-      <c r="L13" s="13">
-        <v>10229</v>
-      </c>
-      <c r="M13" s="13">
-        <v>11121</v>
-      </c>
-      <c r="N13" s="13">
-        <v>10892</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11051</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -903,13 +776,8 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -918,13 +786,8 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -933,15 +796,10 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -960,23 +818,8 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -985,140 +828,90 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="9">
-        <v>0</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="11">
-        <v>-20</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <v>-54</v>
-      </c>
-      <c r="I20" s="11">
-        <v>-17</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
-        <v>8459</v>
-      </c>
-      <c r="F21" s="9">
-        <v>11401</v>
+        <v>9611</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G21" s="9">
-        <v>11743</v>
+        <v>10980</v>
       </c>
       <c r="H21" s="9">
-        <v>13144</v>
+        <v>10162</v>
       </c>
       <c r="I21" s="9">
-        <v>10909</v>
-      </c>
-      <c r="J21" s="9">
-        <v>9497</v>
-      </c>
-      <c r="K21" s="9">
-        <v>9611</v>
-      </c>
-      <c r="L21" s="9">
-        <v>11142</v>
-      </c>
-      <c r="M21" s="9">
-        <v>10980</v>
-      </c>
-      <c r="N21" s="9">
-        <v>10162</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11470</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
         <v>0</v>
       </c>
-      <c r="F22" s="11">
-        <v>0</v>
+      <c r="F22" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G22" s="11">
         <v>0</v>
@@ -1126,63 +919,33 @@
       <c r="H22" s="11">
         <v>0</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="11">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>8459</v>
+        <v>9611</v>
       </c>
       <c r="F23" s="15">
-        <v>11381</v>
+        <v>0</v>
       </c>
       <c r="G23" s="15">
-        <v>11743</v>
+        <v>10980</v>
       </c>
       <c r="H23" s="15">
-        <v>13090</v>
+        <v>10162</v>
       </c>
       <c r="I23" s="15">
-        <v>10892</v>
-      </c>
-      <c r="J23" s="15">
-        <v>9497</v>
-      </c>
-      <c r="K23" s="15">
-        <v>9611</v>
-      </c>
-      <c r="L23" s="15">
-        <v>11142</v>
-      </c>
-      <c r="M23" s="15">
-        <v>10980</v>
-      </c>
-      <c r="N23" s="15">
-        <v>10162</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+        <v>11470</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1191,13 +954,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1206,13 +964,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1221,15 +974,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1248,23 +996,8 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1273,142 +1006,92 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0</v>
-      </c>
-      <c r="M29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="11">
-        <v>-1669</v>
-      </c>
-      <c r="G30" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="11">
-        <v>-8780</v>
-      </c>
-      <c r="I30" s="11">
-        <v>-1793</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>726854</v>
-      </c>
-      <c r="F31" s="9">
-        <v>1079589</v>
+        <v>2419394</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G31" s="9">
-        <v>1637101</v>
+        <v>4025678</v>
       </c>
       <c r="H31" s="9">
-        <v>2535679</v>
+        <v>4252255</v>
       </c>
       <c r="I31" s="9">
-        <v>2464691</v>
-      </c>
-      <c r="J31" s="9">
-        <v>2278352</v>
-      </c>
-      <c r="K31" s="9">
-        <v>2419394</v>
-      </c>
-      <c r="L31" s="9">
-        <v>2941525</v>
-      </c>
-      <c r="M31" s="9">
-        <v>4025678</v>
-      </c>
-      <c r="N31" s="9">
-        <v>4252255</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4003332</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <v>0</v>
       </c>
-      <c r="F32" s="11">
-        <v>0</v>
+      <c r="F32" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G32" s="11">
         <v>0</v>
@@ -1416,63 +1099,33 @@
       <c r="H32" s="11">
         <v>0</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="11">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>726854</v>
+        <v>2419394</v>
       </c>
       <c r="F33" s="15">
-        <v>1077920</v>
+        <v>0</v>
       </c>
       <c r="G33" s="15">
-        <v>1637100</v>
+        <v>4025678</v>
       </c>
       <c r="H33" s="15">
-        <v>2526899</v>
+        <v>4252255</v>
       </c>
       <c r="I33" s="15">
-        <v>2462898</v>
-      </c>
-      <c r="J33" s="15">
-        <v>2278352</v>
-      </c>
-      <c r="K33" s="15">
-        <v>2419394</v>
-      </c>
-      <c r="L33" s="15">
-        <v>2941525</v>
-      </c>
-      <c r="M33" s="15">
-        <v>4025678</v>
-      </c>
-      <c r="N33" s="15">
-        <v>4252255</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+        <v>4003332</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1481,13 +1134,8 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1496,13 +1144,8 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1511,15 +1154,10 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1538,23 +1176,8 @@
       <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1563,169 +1186,104 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="11">
-        <v>83450000</v>
+        <v>12</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="11">
-        <v>162592593</v>
-      </c>
-      <c r="I40" s="11">
-        <v>105470588</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>85926705</v>
+        <v>251731766</v>
       </c>
       <c r="F41" s="9">
-        <v>94692483</v>
+        <v>264003321</v>
       </c>
       <c r="G41" s="9">
-        <v>139506270</v>
+        <v>366637341</v>
       </c>
       <c r="H41" s="9">
-        <v>193082063</v>
+        <v>418446664</v>
       </c>
       <c r="I41" s="9">
-        <v>225931891</v>
-      </c>
-      <c r="J41" s="9">
-        <v>239902285</v>
-      </c>
-      <c r="K41" s="9">
-        <v>251731766</v>
-      </c>
-      <c r="L41" s="9">
-        <v>264003321</v>
-      </c>
-      <c r="M41" s="9">
-        <v>366637341</v>
-      </c>
-      <c r="N41" s="9">
-        <v>418446664</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>349026330</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1734,13 +1292,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1749,13 +1302,8 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1764,15 +1312,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1791,23 +1334,8 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1816,142 +1344,92 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F48" s="9">
+        <v>0</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L48" s="9">
-        <v>0</v>
-      </c>
-      <c r="M48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11">
-        <v>0</v>
-      </c>
-      <c r="F49" s="11">
-        <v>1496</v>
-      </c>
-      <c r="G49" s="11">
-        <v>2613</v>
-      </c>
-      <c r="H49" s="11">
-        <v>3270</v>
-      </c>
-      <c r="I49" s="11">
-        <v>2725</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
-        <v>-586021</v>
+        <v>-1824615</v>
       </c>
       <c r="F50" s="9">
-        <v>-899017</v>
+        <v>-2503056</v>
       </c>
       <c r="G50" s="9">
-        <v>-1231100</v>
+        <v>-3041289</v>
       </c>
       <c r="H50" s="9">
-        <v>-1742041</v>
+        <v>-3206387</v>
       </c>
       <c r="I50" s="9">
-        <v>-1748540</v>
-      </c>
-      <c r="J50" s="9">
-        <v>-1618752</v>
-      </c>
-      <c r="K50" s="9">
-        <v>-1824615</v>
-      </c>
-      <c r="L50" s="9">
-        <v>-2503056</v>
-      </c>
-      <c r="M50" s="9">
-        <v>-3041289</v>
-      </c>
-      <c r="N50" s="9">
-        <v>-3185784</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-3086986</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
         <v>0</v>
       </c>
-      <c r="F51" s="11">
-        <v>0</v>
+      <c r="F51" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
@@ -1959,63 +1437,33 @@
       <c r="H51" s="11">
         <v>0</v>
       </c>
-      <c r="I51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="11">
-        <v>0</v>
-      </c>
-      <c r="K51" s="11">
-        <v>0</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="11">
-        <v>0</v>
-      </c>
-      <c r="N51" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
-        <v>-586021</v>
+        <v>-1824615</v>
       </c>
       <c r="F52" s="15">
-        <v>-897521</v>
+        <v>-2503056</v>
       </c>
       <c r="G52" s="15">
-        <v>-1228487</v>
+        <v>-3041289</v>
       </c>
       <c r="H52" s="15">
-        <v>-1738771</v>
+        <v>-3206387</v>
       </c>
       <c r="I52" s="15">
-        <v>-1745815</v>
-      </c>
-      <c r="J52" s="15">
-        <v>-1618752</v>
-      </c>
-      <c r="K52" s="15">
-        <v>-1824615</v>
-      </c>
-      <c r="L52" s="15">
-        <v>-2503056</v>
-      </c>
-      <c r="M52" s="15">
-        <v>-3041289</v>
-      </c>
-      <c r="N52" s="15">
-        <v>-3185784</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-3086986</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2024,13 +1472,8 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2039,13 +1482,8 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2054,15 +1492,10 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -2081,23 +1514,8 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2106,142 +1524,92 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="F58" s="9">
+        <v>0</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L58" s="9">
-        <v>0</v>
-      </c>
-      <c r="M58" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D59" s="11"/>
-      <c r="E59" s="11">
-        <v>0</v>
-      </c>
-      <c r="F59" s="11">
-        <v>-173</v>
-      </c>
-      <c r="G59" s="11">
-        <v>2612</v>
-      </c>
-      <c r="H59" s="11">
-        <v>-5510</v>
-      </c>
-      <c r="I59" s="11">
-        <v>932</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M59" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N59" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
-        <v>140833</v>
+        <v>594779</v>
       </c>
       <c r="F60" s="9">
-        <v>180572</v>
+        <v>438469</v>
       </c>
       <c r="G60" s="9">
-        <v>404332</v>
+        <v>984389</v>
       </c>
       <c r="H60" s="9">
-        <v>791968</v>
+        <v>1045868</v>
       </c>
       <c r="I60" s="9">
-        <v>716151</v>
-      </c>
-      <c r="J60" s="9">
-        <v>659600</v>
-      </c>
-      <c r="K60" s="9">
-        <v>594779</v>
-      </c>
-      <c r="L60" s="9">
-        <v>438469</v>
-      </c>
-      <c r="M60" s="9">
-        <v>984389</v>
-      </c>
-      <c r="N60" s="9">
-        <v>1066471</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+        <v>916346</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
         <v>0</v>
       </c>
-      <c r="F61" s="11">
-        <v>0</v>
+      <c r="F61" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G61" s="11">
         <v>0</v>
@@ -2249,60 +1617,30 @@
       <c r="H61" s="11">
         <v>0</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J61" s="11">
-        <v>0</v>
-      </c>
-      <c r="K61" s="11">
-        <v>0</v>
-      </c>
-      <c r="L61" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M61" s="11">
-        <v>0</v>
-      </c>
-      <c r="N61" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15">
-        <v>140833</v>
+        <v>594779</v>
       </c>
       <c r="F62" s="15">
-        <v>180399</v>
+        <v>438469</v>
       </c>
       <c r="G62" s="15">
-        <v>406944</v>
+        <v>984389</v>
       </c>
       <c r="H62" s="15">
-        <v>786458</v>
+        <v>1045868</v>
       </c>
       <c r="I62" s="15">
-        <v>717083</v>
-      </c>
-      <c r="J62" s="15">
-        <v>659600</v>
-      </c>
-      <c r="K62" s="15">
-        <v>594779</v>
-      </c>
-      <c r="L62" s="15">
-        <v>438469</v>
-      </c>
-      <c r="M62" s="15">
-        <v>984389</v>
-      </c>
-      <c r="N62" s="15">
-        <v>1066471</v>
+        <v>916346</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shekarbon/product/quarterly.xlsx
+++ b/database/industries/dode/shekarbon/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF214E15-5899-48FD-AAD2-0951B5F7DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FFB053-385B-497F-ADD2-8DF837855705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -556,16 +571,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I62"/>
+  <dimension ref="B1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -574,8 +589,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,8 +606,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -598,8 +623,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -608,8 +638,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -620,8 +655,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -632,8 +672,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -642,8 +687,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -664,8 +714,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -674,100 +739,165 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>10103</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10728</v>
+      </c>
+      <c r="G11" s="11">
+        <v>12936</v>
+      </c>
+      <c r="H11" s="11">
+        <v>11824</v>
+      </c>
+      <c r="I11" s="11">
+        <v>11293</v>
+      </c>
+      <c r="J11" s="11">
         <v>10670</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>10229</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>11121</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>10892</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>11051</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>10103</v>
+      </c>
+      <c r="F13" s="13">
+        <v>10728</v>
+      </c>
+      <c r="G13" s="13">
+        <v>12936</v>
+      </c>
+      <c r="H13" s="13">
+        <v>11824</v>
+      </c>
+      <c r="I13" s="13">
+        <v>11293</v>
+      </c>
+      <c r="J13" s="13">
         <v>10670</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>10229</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>11121</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>10892</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>11051</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -776,8 +906,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -786,8 +921,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -796,10 +936,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -818,8 +963,23 @@
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -828,124 +988,204 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11">
+        <v>-20</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>-54</v>
+      </c>
+      <c r="H20" s="11">
+        <v>-17</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C21" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9">
+        <v>11401</v>
+      </c>
+      <c r="F21" s="9">
+        <v>11743</v>
+      </c>
+      <c r="G21" s="9">
+        <v>13144</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10909</v>
+      </c>
+      <c r="I21" s="9">
+        <v>9497</v>
+      </c>
+      <c r="J21" s="9">
         <v>9611</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="K21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="9">
         <v>10980</v>
       </c>
-      <c r="H21" s="9">
+      <c r="M21" s="9">
         <v>10162</v>
       </c>
-      <c r="I21" s="9">
+      <c r="N21" s="9">
         <v>11470</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11">
         <v>0</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>12</v>
+      <c r="F22" s="11">
+        <v>0</v>
       </c>
       <c r="G22" s="11">
         <v>0</v>
       </c>
-      <c r="H22" s="11">
-        <v>0</v>
+      <c r="H22" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I22" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="11">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>11381</v>
+      </c>
+      <c r="F23" s="15">
+        <v>11743</v>
+      </c>
+      <c r="G23" s="15">
+        <v>13090</v>
+      </c>
+      <c r="H23" s="15">
+        <v>10892</v>
+      </c>
+      <c r="I23" s="15">
+        <v>9497</v>
+      </c>
+      <c r="J23" s="15">
         <v>9611</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
         <v>10980</v>
       </c>
-      <c r="H23" s="15">
+      <c r="M23" s="15">
         <v>10162</v>
       </c>
-      <c r="I23" s="15">
+      <c r="N23" s="15">
         <v>11470</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -954,8 +1194,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -964,8 +1209,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -974,10 +1224,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -996,8 +1251,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1006,126 +1276,206 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11">
+        <v>-1669</v>
+      </c>
+      <c r="F30" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="11">
+        <v>-8780</v>
+      </c>
+      <c r="H30" s="11">
+        <v>-1793</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>1079589</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1637101</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2535679</v>
+      </c>
+      <c r="H31" s="9">
+        <v>2464691</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2278352</v>
+      </c>
+      <c r="J31" s="9">
         <v>2419394</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="9">
         <v>4025678</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>4252255</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>4003332</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
         <v>0</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>12</v>
+      <c r="F32" s="11">
+        <v>0</v>
       </c>
       <c r="G32" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="H32" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I32" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="11">
+        <v>0</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>1077920</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1637100</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2526899</v>
+      </c>
+      <c r="H33" s="15">
+        <v>2462898</v>
+      </c>
+      <c r="I33" s="15">
+        <v>2278352</v>
+      </c>
+      <c r="J33" s="15">
         <v>2419394</v>
       </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="15">
+      <c r="K33" s="15">
+        <v>0</v>
+      </c>
+      <c r="L33" s="15">
         <v>4025678</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>4252255</v>
       </c>
-      <c r="I33" s="15">
+      <c r="N33" s="15">
         <v>4003332</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1134,8 +1484,13 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1144,8 +1499,13 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1154,10 +1514,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1176,8 +1541,23 @@
       <c r="I37" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1186,104 +1566,169 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11">
+        <v>83450000</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="11">
+        <v>162592593</v>
+      </c>
+      <c r="H40" s="11">
+        <v>105470588</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C41" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
+        <v>94692483</v>
+      </c>
+      <c r="F41" s="9">
+        <v>139506270</v>
+      </c>
+      <c r="G41" s="9">
+        <v>193082063</v>
+      </c>
+      <c r="H41" s="9">
+        <v>225931891</v>
+      </c>
+      <c r="I41" s="9">
+        <v>239902285</v>
+      </c>
+      <c r="J41" s="9">
         <v>251731766</v>
       </c>
-      <c r="F41" s="9">
+      <c r="K41" s="9">
         <v>264003321</v>
       </c>
-      <c r="G41" s="9">
+      <c r="L41" s="9">
         <v>366637341</v>
       </c>
-      <c r="H41" s="9">
+      <c r="M41" s="9">
         <v>418446664</v>
       </c>
-      <c r="I41" s="9">
+      <c r="N41" s="9">
         <v>349026330</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1292,8 +1737,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1302,8 +1752,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1312,10 +1767,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1334,8 +1794,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1344,126 +1819,206 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11">
+        <v>1496</v>
+      </c>
+      <c r="F49" s="11">
+        <v>2613</v>
+      </c>
+      <c r="G49" s="11">
+        <v>3270</v>
+      </c>
+      <c r="H49" s="11">
+        <v>2725</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C50" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9">
+        <v>-899017</v>
+      </c>
+      <c r="F50" s="9">
+        <v>-1231100</v>
+      </c>
+      <c r="G50" s="9">
+        <v>-1742041</v>
+      </c>
+      <c r="H50" s="9">
+        <v>-1748540</v>
+      </c>
+      <c r="I50" s="9">
+        <v>-1618752</v>
+      </c>
+      <c r="J50" s="9">
         <v>-1824615</v>
       </c>
-      <c r="F50" s="9">
+      <c r="K50" s="9">
         <v>-2503056</v>
       </c>
-      <c r="G50" s="9">
+      <c r="L50" s="9">
         <v>-3041289</v>
       </c>
-      <c r="H50" s="9">
+      <c r="M50" s="9">
         <v>-3206387</v>
       </c>
-      <c r="I50" s="9">
+      <c r="N50" s="9">
         <v>-3086986</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
         <v>0</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>12</v>
+      <c r="F51" s="11">
+        <v>0</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
       </c>
-      <c r="H51" s="11">
-        <v>0</v>
+      <c r="H51" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I51" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15">
+        <v>-897521</v>
+      </c>
+      <c r="F52" s="15">
+        <v>-1228487</v>
+      </c>
+      <c r="G52" s="15">
+        <v>-1738771</v>
+      </c>
+      <c r="H52" s="15">
+        <v>-1745815</v>
+      </c>
+      <c r="I52" s="15">
+        <v>-1618752</v>
+      </c>
+      <c r="J52" s="15">
         <v>-1824615</v>
       </c>
-      <c r="F52" s="15">
+      <c r="K52" s="15">
         <v>-2503056</v>
       </c>
-      <c r="G52" s="15">
+      <c r="L52" s="15">
         <v>-3041289</v>
       </c>
-      <c r="H52" s="15">
+      <c r="M52" s="15">
         <v>-3206387</v>
       </c>
-      <c r="I52" s="15">
+      <c r="N52" s="15">
         <v>-3086986</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1472,8 +2027,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1482,8 +2042,13 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1492,10 +2057,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -1514,8 +2084,23 @@
       <c r="I56" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1524,122 +2109,202 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11">
+        <v>-173</v>
+      </c>
+      <c r="F59" s="11">
+        <v>2612</v>
+      </c>
+      <c r="G59" s="11">
+        <v>-5510</v>
+      </c>
+      <c r="H59" s="11">
+        <v>932</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="C60" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9">
+        <v>180572</v>
+      </c>
+      <c r="F60" s="9">
+        <v>404332</v>
+      </c>
+      <c r="G60" s="9">
+        <v>791968</v>
+      </c>
+      <c r="H60" s="9">
+        <v>716151</v>
+      </c>
+      <c r="I60" s="9">
+        <v>659600</v>
+      </c>
+      <c r="J60" s="9">
         <v>594779</v>
       </c>
-      <c r="F60" s="9">
+      <c r="K60" s="9">
         <v>438469</v>
       </c>
-      <c r="G60" s="9">
+      <c r="L60" s="9">
         <v>984389</v>
       </c>
-      <c r="H60" s="9">
+      <c r="M60" s="9">
         <v>1045868</v>
       </c>
-      <c r="I60" s="9">
+      <c r="N60" s="9">
         <v>916346</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
         <v>0</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>12</v>
+      <c r="F61" s="11">
+        <v>0</v>
       </c>
       <c r="G61" s="11">
         <v>0</v>
       </c>
-      <c r="H61" s="11">
-        <v>0</v>
+      <c r="H61" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I61" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="11">
+        <v>0</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15">
+        <v>180399</v>
+      </c>
+      <c r="F62" s="15">
+        <v>406944</v>
+      </c>
+      <c r="G62" s="15">
+        <v>786458</v>
+      </c>
+      <c r="H62" s="15">
+        <v>717083</v>
+      </c>
+      <c r="I62" s="15">
+        <v>659600</v>
+      </c>
+      <c r="J62" s="15">
         <v>594779</v>
       </c>
-      <c r="F62" s="15">
+      <c r="K62" s="15">
         <v>438469</v>
       </c>
-      <c r="G62" s="15">
+      <c r="L62" s="15">
         <v>984389</v>
       </c>
-      <c r="H62" s="15">
+      <c r="M62" s="15">
         <v>1045868</v>
       </c>
-      <c r="I62" s="15">
+      <c r="N62" s="15">
         <v>916346</v>
       </c>
     </row>

--- a/database/industries/dode/shekarbon/product/quarterly.xlsx
+++ b/database/industries/dode/shekarbon/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FFB053-385B-497F-ADD2-8DF837855705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D5159C-F7A0-4C00-AFAD-963D614ED9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -575,12 +575,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -595,7 +595,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -644,7 +644,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -693,7 +693,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -784,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -823,7 +823,7 @@
         <v>11051</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
@@ -897,7 +897,7 @@
         <v>11051</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -912,7 +912,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -927,7 +927,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -942,7 +942,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
@@ -979,7 +979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -994,7 +994,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>15</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1200,7 +1200,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1215,7 +1215,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1230,7 +1230,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1282,7 +1282,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>4003332</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>20</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>4003332</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1505,7 +1505,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1520,7 +1520,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>26</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1572,7 +1572,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>23</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>349026330</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1743,7 +1743,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1758,7 +1758,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1773,7 +1773,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>30</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1825,7 +1825,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>23</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>-3086986</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>21</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>-3086986</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2033,7 +2033,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2048,7 +2048,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2063,7 +2063,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>31</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2115,7 +2115,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>15</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>23</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>18</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>916346</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>20</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="14" t="s">
         <v>21</v>
       </c>
